--- a/מגנטיות/חלק ב מגנטיות תלות במרחק בין הסלילים.xlsx
+++ b/מגנטיות/חלק ב מגנטיות תלות במרחק בין הסלילים.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\מעבדה 2 א\laba\מגנטיות\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0557291D-B5A8-4EDB-8E8B-347AD8B2AAF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D47C651-7368-42E1-9BFC-D1FBEFA1A903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="18 ללא מגנט שמאלי" sheetId="17" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="9">
   <si>
     <t>Time(s)</t>
   </si>
@@ -79,6 +79,24 @@
       </rPr>
       <t>_0</t>
     </r>
+  </si>
+  <si>
+    <t>D_RES</t>
+  </si>
+  <si>
+    <t>MAX AV</t>
+  </si>
+  <si>
+    <t>MIN AV</t>
+  </si>
+  <si>
+    <t>AMPI</t>
+  </si>
+  <si>
+    <t>dMax</t>
+  </si>
+  <si>
+    <t>dMin</t>
   </si>
 </sst>
 </file>
@@ -10440,16 +10458,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>297180</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>148590</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>213360</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>148590</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10904,15 +10922,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D201"/>
+  <dimension ref="A1:J209"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D3"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10920,7 +10938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -10930,8 +10948,20 @@
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0.01</v>
       </c>
@@ -10942,1589 +10972,3271 @@
         <f>(MAX(B2:B1001)-MIN(B2:B1001))/2</f>
         <v>8.5000000000000006E-3</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3" t="str">
+        <f>IF(AND(B3&lt;=B2, B3&lt;B4),B3,"")</f>
+        <v/>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F66" si="0">IF(AND(B3&gt;=B2, B3&gt;B4),B3,"")</f>
+        <v/>
+      </c>
+      <c r="G3">
+        <f>0.001/SQRT(12)</f>
+        <v>2.886751345948129E-4</v>
+      </c>
+      <c r="H3">
+        <f>AVERAGE(F:F)</f>
+        <v>6.9142857142857183E-3</v>
+      </c>
+      <c r="I3">
+        <f>AVERAGE(E:E)</f>
+        <v>-3.4571428571428583E-3</v>
+      </c>
+      <c r="J3">
+        <f>(H3-I3)/2</f>
+        <v>5.1857142857142883E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0.02</v>
       </c>
       <c r="B4">
         <v>8.9999999999999993E-3</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4" t="str">
+        <f t="shared" ref="E4:E67" si="1">IF(AND(B4&lt;=B3, B4&lt;B5),B4,"")</f>
+        <v/>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="H4">
+        <f>_xlfn.STDEV.P(F:F)/SQRT(COUNT(F:F))</f>
+        <v>3.1654107273600834E-4</v>
+      </c>
+      <c r="I4">
+        <f>_xlfn.STDEV.P(E:E)/SQRT(COUNT(E:E))</f>
+        <v>3.9246548194580135E-4</v>
+      </c>
+      <c r="J4">
+        <f>SQRT(H7^2+I7^2)/2</f>
+        <v>3.2438174729571315E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0.03</v>
       </c>
       <c r="B5">
         <v>6.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F5" t="str">
+        <f>IF(AND(B5&gt;=B4, B5&gt;B6),B5,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0.04</v>
       </c>
       <c r="B6">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0.05</v>
       </c>
       <c r="B7">
         <v>-5.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H7">
+        <f>SQRT(H4^2+G3^2)</f>
+        <v>4.2840586371126649E-4</v>
+      </c>
+      <c r="I7">
+        <f>SQRT(I4^2+G3^2)</f>
+        <v>4.8719861232590091E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0.06</v>
       </c>
       <c r="B8">
         <v>-5.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="B9">
         <v>-1E-3</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0.08</v>
       </c>
       <c r="B10">
         <v>6.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>0.09</v>
       </c>
       <c r="B11">
         <v>5.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>0.1</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>0.11</v>
       </c>
       <c r="B13">
         <v>-2E-3</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>0.12</v>
       </c>
       <c r="B14">
         <v>-5.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>0.13</v>
       </c>
       <c r="B15">
         <v>-1E-3</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E15" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>0.14000000000000001</v>
       </c>
       <c r="B16">
         <v>4.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E16" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>0.15</v>
       </c>
       <c r="B17">
         <v>7.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E17" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>0.16</v>
       </c>
       <c r="B18">
         <v>4.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E18" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>0.17</v>
       </c>
       <c r="B19">
         <v>2E-3</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>0.18</v>
       </c>
       <c r="B20">
         <v>-4.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E20" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>0.19</v>
       </c>
       <c r="B21">
         <v>-4.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>0.2</v>
       </c>
       <c r="B22">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E22" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>0.21</v>
       </c>
       <c r="B23">
         <v>7.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>0.22</v>
       </c>
       <c r="B24">
         <v>5.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E24" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>0.23</v>
       </c>
       <c r="B25">
         <v>2E-3</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E25" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>0.24</v>
       </c>
       <c r="B26">
         <v>-6.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E26">
+        <f t="shared" si="1"/>
+        <v>-6.0000000000000001E-3</v>
+      </c>
+      <c r="F26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>0.25</v>
       </c>
       <c r="B27">
         <v>-2E-3</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E27" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>0.26</v>
       </c>
       <c r="B28">
         <v>-1E-3</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>0.27</v>
       </c>
       <c r="B29">
         <v>1.0999999999999999E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E29" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>0.28000000000000003</v>
       </c>
       <c r="B30">
         <v>6.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E30" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F30" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>0.28999999999999998</v>
       </c>
       <c r="B31">
         <v>5.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>0.3</v>
       </c>
       <c r="B32">
         <v>-2E-3</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F32" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>0.31</v>
       </c>
       <c r="B33">
         <v>-4.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E33">
+        <f t="shared" si="1"/>
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="F33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>0.32</v>
       </c>
       <c r="B34">
         <v>-1E-3</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E34" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F34" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>0.33</v>
       </c>
       <c r="B35">
         <v>5.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E35" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F35" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>0.34</v>
       </c>
       <c r="B36">
         <v>6.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E36" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F36" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>0.35</v>
       </c>
       <c r="B37">
         <v>6.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E37" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F37">
+        <f t="shared" si="0"/>
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>0.36</v>
       </c>
       <c r="B38">
         <v>-1E-3</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E38" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F38" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>0.37</v>
       </c>
       <c r="B39">
         <v>-2E-3</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E39" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F39" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>0.38</v>
       </c>
       <c r="B40">
         <v>-4.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E40">
+        <f t="shared" si="1"/>
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="F40" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>0.39</v>
       </c>
       <c r="B41">
         <v>2E-3</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E41" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F41" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>0.4</v>
       </c>
       <c r="B42">
         <v>5.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E42" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F42" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>0.41</v>
       </c>
       <c r="B43">
         <v>6.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E43" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F43">
+        <f t="shared" si="0"/>
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>0.42</v>
       </c>
       <c r="B44">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E44" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F44" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>0.43</v>
       </c>
       <c r="B45">
         <v>-2E-3</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E45" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F45" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>0.44</v>
       </c>
       <c r="B46">
         <v>-5.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E46">
+        <f t="shared" si="1"/>
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="F46" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>0.45</v>
       </c>
       <c r="B47">
         <v>-2E-3</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E47" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F47" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>0.46</v>
       </c>
       <c r="B48">
         <v>2E-3</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E48" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F48" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>0.47</v>
       </c>
       <c r="B49">
         <v>7.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E49" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F49">
+        <f t="shared" si="0"/>
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>0.48</v>
       </c>
       <c r="B50">
         <v>4.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E50" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F50" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>0.49</v>
       </c>
       <c r="B51">
         <v>-2E-3</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E51" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F51" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>0.5</v>
       </c>
       <c r="B52">
         <v>-5.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E52">
+        <f t="shared" si="1"/>
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="F52" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>0.51</v>
       </c>
       <c r="B53">
         <v>-2E-3</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E53" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F53" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>0.52</v>
       </c>
       <c r="B54">
         <v>2E-3</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E54" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F54" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>0.53</v>
       </c>
       <c r="B55">
         <v>6.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E55" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F55" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>0.54</v>
       </c>
       <c r="B56">
         <v>7.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E56" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F56">
+        <f t="shared" si="0"/>
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>0.55000000000000004</v>
       </c>
       <c r="B57">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E57" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F57" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>0.56000000000000005</v>
       </c>
       <c r="B58">
         <v>-4.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E58" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F58" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>0.56999999999999995</v>
       </c>
       <c r="B59">
         <v>-5.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E59">
+        <f t="shared" si="1"/>
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="F59" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>0.57999999999999996</v>
       </c>
       <c r="B60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E60" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F60" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>0.59</v>
       </c>
       <c r="B61">
         <v>5.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E61" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F61" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>0.6</v>
       </c>
       <c r="B62">
         <v>6.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E62" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F62">
+        <f t="shared" si="0"/>
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>0.61</v>
       </c>
       <c r="B63">
         <v>2E-3</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E63" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F63" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>0.62</v>
       </c>
       <c r="B64">
         <v>-2E-3</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E64" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F64" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>0.63</v>
       </c>
       <c r="B65">
         <v>-5.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E65">
+        <f t="shared" si="1"/>
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="F65" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>0.64</v>
       </c>
       <c r="B66">
         <v>-2E-3</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E66" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F66" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>0.65</v>
       </c>
       <c r="B67">
         <v>2E-3</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E67" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F67" t="str">
+        <f t="shared" ref="F67:F130" si="2">IF(AND(B67&gt;=B66, B67&gt;B68),B67,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>0.66</v>
       </c>
       <c r="B68">
         <v>5.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E68" t="str">
+        <f t="shared" ref="E68:E131" si="3">IF(AND(B68&lt;=B67, B68&lt;B69),B68,"")</f>
+        <v/>
+      </c>
+      <c r="F68">
+        <f t="shared" si="2"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>0.67</v>
       </c>
       <c r="B69">
         <v>4.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E69" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F69" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>0.68</v>
       </c>
       <c r="B70">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E70" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F70" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>0.69</v>
       </c>
       <c r="B71">
         <v>-5.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E71">
+        <f t="shared" si="3"/>
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="F71" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>0.7</v>
       </c>
       <c r="B72">
         <v>-4.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E72" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F72" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>0.71</v>
       </c>
       <c r="B73">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E73" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F73" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>0.72</v>
       </c>
       <c r="B74">
         <v>6.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E74" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F74">
+        <f t="shared" si="2"/>
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>0.73</v>
       </c>
       <c r="B75">
         <v>5.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E75" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F75" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>0.74</v>
       </c>
       <c r="B76">
         <v>2E-3</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E76" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F76" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>0.75</v>
       </c>
       <c r="B77">
         <v>-2E-3</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E77" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F77" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>0.76</v>
       </c>
       <c r="B78">
         <v>-5.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E78">
+        <f t="shared" si="3"/>
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="F78" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>0.77</v>
       </c>
       <c r="B79">
         <v>-1E-3</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E79" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F79" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>0.78</v>
       </c>
       <c r="B80">
         <v>6.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E80" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F80" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>0.79</v>
       </c>
       <c r="B81">
         <v>7.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E81" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F81">
+        <f t="shared" si="2"/>
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>0.8</v>
       </c>
       <c r="B82">
         <v>4.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E82" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F82" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>0.81</v>
       </c>
       <c r="B83">
         <v>-2E-3</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E83" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F83" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>0.82</v>
       </c>
       <c r="B84">
         <v>-5.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E84">
+        <f t="shared" si="3"/>
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="F84" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>0.83</v>
       </c>
       <c r="B85">
         <v>-2E-3</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E85" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F85" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>0.84</v>
       </c>
       <c r="B86">
         <v>2E-3</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E86" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F86" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>0.85</v>
       </c>
       <c r="B87">
         <v>6.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E87" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F87">
+        <f t="shared" si="2"/>
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>0.86</v>
       </c>
       <c r="B88">
         <v>4.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E88" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F88" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>0.87</v>
       </c>
       <c r="B89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E89" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F89" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>0.88</v>
       </c>
       <c r="B90">
         <v>-4.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E90" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F90" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>0.89</v>
       </c>
       <c r="B91">
         <v>-4.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E91">
+        <f t="shared" si="3"/>
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="F91" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>0.9</v>
       </c>
       <c r="B92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E92" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F92" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>0.91</v>
       </c>
       <c r="B93">
         <v>6.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E93" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F93" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>0.92</v>
       </c>
       <c r="B94">
         <v>7.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E94" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F94">
+        <f t="shared" si="2"/>
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>0.93</v>
       </c>
       <c r="B95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E95" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F95" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>0.94</v>
       </c>
       <c r="B96">
         <v>-1E-3</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E96" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F96" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>0.95</v>
       </c>
       <c r="B97">
         <v>-2E-3</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E97">
+        <f t="shared" si="3"/>
+        <v>-2E-3</v>
+      </c>
+      <c r="F97" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>0.96</v>
       </c>
       <c r="B98">
         <v>-1E-3</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E98" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F98" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>0.97</v>
       </c>
       <c r="B99">
         <v>5.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E99" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F99" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>0.98</v>
       </c>
       <c r="B100">
         <v>6.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E100" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F100">
+        <f t="shared" si="2"/>
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>0.99</v>
       </c>
       <c r="B101">
         <v>4.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E101" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F101" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>1</v>
       </c>
       <c r="B102">
         <v>-4.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E102" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F102" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>1.01</v>
       </c>
       <c r="B103">
         <v>-4.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E103">
+        <f t="shared" si="3"/>
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="F103" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>1.02</v>
       </c>
       <c r="B104">
         <v>-2E-3</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E104" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F104" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>1.03</v>
       </c>
       <c r="B105">
         <v>2E-3</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E105" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F105" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>1.04</v>
       </c>
       <c r="B106">
         <v>5.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E106" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F106" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>1.05</v>
       </c>
       <c r="B107">
         <v>6.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E107" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F107">
+        <f t="shared" si="2"/>
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>1.06</v>
       </c>
       <c r="B108">
         <v>-1E-3</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E108" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F108" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>1.07</v>
       </c>
       <c r="B109">
         <v>-5.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E109">
+        <f t="shared" si="3"/>
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="F109" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>1.08</v>
       </c>
       <c r="B110">
         <v>-1E-3</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E110" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F110" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>1.0900000000000001</v>
       </c>
       <c r="B111">
         <v>2E-3</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E111" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F111" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>1.1000000000000001</v>
       </c>
       <c r="B112">
         <v>5.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E112" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F112" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>1.1100000000000001</v>
       </c>
       <c r="B113">
         <v>6.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E113" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F113">
+        <f t="shared" si="2"/>
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>1.1200000000000001</v>
       </c>
       <c r="B114">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E114" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F114" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>1.1299999999999999</v>
       </c>
       <c r="B115">
         <v>-1E-3</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E115" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F115" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>1.1399999999999999</v>
       </c>
       <c r="B116">
         <v>-5.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E116">
+        <f t="shared" si="3"/>
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="F116" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>1.1499999999999999</v>
       </c>
       <c r="B117">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E117" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F117" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>1.1599999999999999</v>
       </c>
       <c r="B118">
         <v>4.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E118" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F118" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>1.17</v>
       </c>
       <c r="B119">
         <v>7.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E119" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F119">
+        <f t="shared" si="2"/>
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>1.18</v>
       </c>
       <c r="B120">
         <v>4.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E120" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F120" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>1.19</v>
       </c>
       <c r="B121">
         <v>-1E-3</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E121" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F121" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>1.2</v>
       </c>
       <c r="B122">
         <v>-4.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E122">
+        <f t="shared" si="3"/>
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="F122" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>1.21</v>
       </c>
       <c r="B123">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E123" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F123" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>1.22</v>
       </c>
       <c r="B124">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E124" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F124" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>1.23</v>
       </c>
       <c r="B125">
         <v>6.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E125" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F125" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>1.24</v>
       </c>
       <c r="B126">
         <v>7.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E126" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F126">
+        <f t="shared" si="2"/>
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>1.25</v>
       </c>
       <c r="B127">
         <v>2E-3</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E127" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F127" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>1.26</v>
       </c>
       <c r="B128">
         <v>-4.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E128">
+        <f t="shared" si="3"/>
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="F128" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>1.27</v>
       </c>
       <c r="B129">
         <v>-1E-3</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E129" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F129" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>1.28</v>
       </c>
       <c r="B130">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E130" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F130" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>1.29</v>
       </c>
       <c r="B131">
         <v>6.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E131" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F131">
+        <f t="shared" ref="F131:F194" si="4">IF(AND(B131&gt;=B130, B131&gt;B132),B131,"")</f>
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>1.3</v>
       </c>
       <c r="B132">
         <v>5.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E132">
+        <f t="shared" ref="E132:E195" si="5">IF(AND(B132&lt;=B131, B132&lt;B133),B132,"")</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F132" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>1.31</v>
       </c>
       <c r="B133">
         <v>7.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E133" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F133">
+        <f t="shared" si="4"/>
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>1.32</v>
       </c>
       <c r="B134">
         <v>-2E-3</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E134" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F134" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>1.33</v>
       </c>
       <c r="B135">
         <v>-2E-3</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E135">
+        <f t="shared" si="5"/>
+        <v>-2E-3</v>
+      </c>
+      <c r="F135" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>1.34</v>
       </c>
       <c r="B136">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E136" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F136" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>1.35</v>
       </c>
       <c r="B137">
         <v>4.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E137" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F137" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>1.36</v>
       </c>
       <c r="B138">
         <v>7.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E138" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F138">
+        <f t="shared" si="4"/>
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>1.37</v>
       </c>
       <c r="B139">
         <v>5.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E139" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F139" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>1.38</v>
       </c>
       <c r="B140">
         <v>2E-3</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E140" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F140" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>1.39</v>
       </c>
       <c r="B141">
         <v>-4.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E141" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F141" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>1.4</v>
       </c>
       <c r="B142">
         <v>-4.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E142">
+        <f t="shared" si="5"/>
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="F142" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>1.41</v>
       </c>
       <c r="B143">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E143" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F143" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>1.42</v>
       </c>
       <c r="B144">
         <v>6.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E144" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F144" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>1.43</v>
       </c>
       <c r="B145">
         <v>7.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E145" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F145">
+        <f t="shared" si="4"/>
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>1.44</v>
       </c>
       <c r="B146">
         <v>2E-3</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E146" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F146" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>1.45</v>
       </c>
       <c r="B147">
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E147" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F147" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>1.46</v>
       </c>
       <c r="B148">
         <v>-4.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E148">
+        <f t="shared" si="5"/>
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="F148" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>1.47</v>
       </c>
       <c r="B149">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E149" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F149" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>1.48</v>
       </c>
       <c r="B150">
         <v>7.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E150" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F150" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>1.49</v>
       </c>
       <c r="B151">
         <v>7.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E151" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F151">
+        <f t="shared" si="4"/>
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>1.5</v>
       </c>
       <c r="B152">
         <v>4.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E152" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F152" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>1.51</v>
       </c>
       <c r="B153">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E153" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F153" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>1.52</v>
       </c>
       <c r="B154">
         <v>-5.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E154">
+        <f t="shared" si="5"/>
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="F154" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>1.53</v>
       </c>
       <c r="B155">
         <v>-1E-3</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E155" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F155" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>1.54</v>
       </c>
       <c r="B156">
         <v>4.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E156" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F156" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>1.55</v>
       </c>
       <c r="B157">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E157" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F157">
+        <f t="shared" si="4"/>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>1.56</v>
       </c>
       <c r="B158">
         <v>6.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E158" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F158" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>1.57</v>
       </c>
       <c r="B159">
         <v>4.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E159" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F159" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>1.58</v>
       </c>
       <c r="B160">
         <v>-2E-3</v>
       </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E160">
+        <f t="shared" si="5"/>
+        <v>-2E-3</v>
+      </c>
+      <c r="F160" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>1.59</v>
       </c>
       <c r="B161">
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E161" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F161" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>1.6</v>
       </c>
       <c r="B162">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E162" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F162" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>1.61</v>
       </c>
       <c r="B163">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E163" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F163">
+        <f t="shared" si="4"/>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>1.62</v>
       </c>
       <c r="B164">
         <v>7.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E164" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F164" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>1.63</v>
       </c>
       <c r="B165">
         <v>5.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E165" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F165" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>1.64</v>
       </c>
       <c r="B166">
         <v>-2E-3</v>
       </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E166">
+        <f t="shared" si="5"/>
+        <v>-2E-3</v>
+      </c>
+      <c r="F166" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>1.65</v>
       </c>
       <c r="B167">
         <v>-1E-3</v>
       </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E167" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F167" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>1.66</v>
       </c>
       <c r="B168">
         <v>-1E-3</v>
       </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E168">
+        <f t="shared" si="5"/>
+        <v>-1E-3</v>
+      </c>
+      <c r="F168" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>1.67</v>
       </c>
       <c r="B169">
         <v>6.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E169" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F169" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>1.68</v>
       </c>
       <c r="B170">
         <v>7.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E170" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F170" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>1.69</v>
       </c>
       <c r="B171">
         <v>7.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E171" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F171">
+        <f t="shared" si="4"/>
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>1.7</v>
       </c>
       <c r="B172">
         <v>-2E-3</v>
       </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E172">
+        <f t="shared" si="5"/>
+        <v>-2E-3</v>
+      </c>
+      <c r="F172" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>1.71</v>
       </c>
       <c r="B173">
         <v>0</v>
       </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E173" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F173">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>1.72</v>
       </c>
       <c r="B174">
         <v>-4.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E174">
+        <f t="shared" si="5"/>
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="F174" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>1.73</v>
       </c>
       <c r="B175">
         <v>4.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E175" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F175" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>1.74</v>
       </c>
       <c r="B176">
         <v>7.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E176" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F176" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>1.75</v>
       </c>
       <c r="B177">
         <v>8.9999999999999993E-3</v>
       </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E177" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F177">
+        <f t="shared" si="4"/>
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>1.76</v>
       </c>
       <c r="B178">
         <v>2E-3</v>
       </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E178" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F178" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>1.77</v>
       </c>
       <c r="B179">
         <v>-2E-3</v>
       </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E179" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F179" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>1.78</v>
       </c>
       <c r="B180">
         <v>-2E-3</v>
       </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E180">
+        <f t="shared" si="5"/>
+        <v>-2E-3</v>
+      </c>
+      <c r="F180" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>1.79</v>
       </c>
       <c r="B181">
         <v>2E-3</v>
       </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E181" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F181" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>1.8</v>
       </c>
       <c r="B182">
         <v>6.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E182" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F182" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>1.81</v>
       </c>
       <c r="B183">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E183" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F183">
+        <f t="shared" si="4"/>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>1.82</v>
       </c>
       <c r="B184">
         <v>2E-3</v>
       </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E184" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F184" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>1.83</v>
       </c>
       <c r="B185">
         <v>-2E-3</v>
       </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E185" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F185" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>1.84</v>
       </c>
       <c r="B186">
         <v>-4.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E186">
+        <f t="shared" si="5"/>
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="F186" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>1.85</v>
       </c>
       <c r="B187">
         <v>5.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E187" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F187">
+        <f t="shared" si="4"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>1.86</v>
       </c>
       <c r="B188">
         <v>4.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E188">
+        <f t="shared" si="5"/>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="F188" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>1.87</v>
       </c>
       <c r="B189">
         <v>8.9999999999999993E-3</v>
       </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E189" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F189">
+        <f t="shared" si="4"/>
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>1.88</v>
       </c>
       <c r="B190">
         <v>6.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E190" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F190" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>1.89</v>
       </c>
       <c r="B191">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E191" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F191" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>1.9</v>
       </c>
       <c r="B192">
         <v>-5.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E192">
+        <f t="shared" si="5"/>
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="F192" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>1.91</v>
       </c>
       <c r="B193">
         <v>-1E-3</v>
       </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E193" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F193" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>1.92</v>
       </c>
       <c r="B194">
         <v>4.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E194" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F194" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>1.93</v>
       </c>
       <c r="B195">
         <v>6.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E195" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F195" t="str">
+        <f t="shared" ref="F195:F201" si="6">IF(AND(B195&gt;=B194, B195&gt;B196),B195,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>1.94</v>
       </c>
       <c r="B196">
         <v>7.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E196" t="str">
+        <f t="shared" ref="E196:E209" si="7">IF(AND(B196&lt;=B195, B196&lt;B197),B196,"")</f>
+        <v/>
+      </c>
+      <c r="F196">
+        <f t="shared" si="6"/>
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>1.95</v>
       </c>
       <c r="B197">
         <v>4.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E197" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F197" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>1.96</v>
       </c>
       <c r="B198">
         <v>-2E-3</v>
       </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E198" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F198" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>1.97</v>
       </c>
       <c r="B199">
         <v>-2E-3</v>
       </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E199">
+        <f t="shared" si="7"/>
+        <v>-2E-3</v>
+      </c>
+      <c r="F199" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>1.98</v>
       </c>
       <c r="B200">
         <v>0</v>
       </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E200" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F200" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>1.99</v>
       </c>
       <c r="B201">
         <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="E201" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F201">
+        <f t="shared" si="6"/>
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E202" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E203" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E204" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E205" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E206" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E207" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E208" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="209" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E209" t="str">
+        <f t="shared" si="7"/>
+        <v/>
       </c>
     </row>
   </sheetData>
